--- a/25-Feature Selection/Features_Selection_V1.0.xlsx
+++ b/25-Feature Selection/Features_Selection_V1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="BORUTA_SELECTION" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="ColorKey">#REF!</definedName>
     <definedName name="DueToday">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="141">
   <si>
     <t>YOB</t>
   </si>
@@ -450,51 +450,6 @@
   </si>
   <si>
     <t xml:space="preserve">Q116601 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q123621 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q122771 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q120650 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q118232 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q110740 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q108855 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q107491 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q106388 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q106389 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q106042 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q105840 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q105655 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q100010 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q99480 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q98059 + </t>
   </si>
 </sst>
 </file>
@@ -891,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -926,7 +881,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,10 +1094,10 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G109" sqref="G109"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1108,10 @@
     <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="16" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1519,7 +1477,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1642,7 +1600,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1929,7 +1887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2339,7 +2297,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2380,7 +2338,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -3733,7 +3691,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -3897,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -4184,7 +4142,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
@@ -4348,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -4389,7 +4347,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -4430,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -4471,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -4512,7 +4470,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -5127,7 +5085,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
@@ -5250,7 +5208,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
@@ -5373,7 +5331,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -5584,9 +5542,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K107">
-    <filterColumn colId="9">
+    <filterColumn colId="10">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5681,20 +5641,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:Z28"/>
+      <selection activeCell="A21" sqref="A21:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="str">
-        <f t="shared" ref="B1:C26" si="0" xml:space="preserve"> CONCATENATE(A1, " + ")</f>
+        <f t="shared" ref="B1:B13" si="0" xml:space="preserve"> CONCATENATE(A1, " + ")</f>
         <v xml:space="preserve">Gender + </v>
       </c>
       <c r="C1" t="s">
@@ -5703,411 +5666,186 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q123621 + </v>
+        <v xml:space="preserve">Q121699 + </v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q122771 + </v>
+        <v xml:space="preserve">Q120379 + </v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q121699 + </v>
+        <v xml:space="preserve">Q120472 + </v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q120379 + </v>
+        <v xml:space="preserve">Q118233 + </v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q120650 + </v>
+        <v xml:space="preserve">Q116601 + </v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q118232 + </v>
+        <v xml:space="preserve">Q115611 + </v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q118233 + </v>
+        <v xml:space="preserve">Q113181 + </v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q115611 + </v>
+        <v xml:space="preserve">Q109244 + </v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q113181 + </v>
+        <v xml:space="preserve">Q106272 + </v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q110740 + </v>
+        <v xml:space="preserve">Q101163 + </v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q109244 + </v>
+        <v xml:space="preserve">Q98869 + </v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Q108855 + </v>
+        <v xml:space="preserve">Q98197 + </v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q107491 + </v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q106272 + </v>
-      </c>
-      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q106388 + </v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q106389 + </v>
-      </c>
-      <c r="C17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q106042 + </v>
-      </c>
-      <c r="C18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q105840 + </v>
-      </c>
-      <c r="C19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="K21" t="s">
         <v>137</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L21" t="s">
         <v>133</v>
       </c>
-      <c r="M19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q105655 + </v>
-      </c>
-      <c r="C20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q101163 + </v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q100010 + </v>
-      </c>
-      <c r="C22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q99480 + </v>
-      </c>
-      <c r="C23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q98869 + </v>
-      </c>
-      <c r="C24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q98059 + </v>
-      </c>
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Q98197 + </v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" t="s">
-        <v>130</v>
-      </c>
-      <c r="K28" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28" t="s">
-        <v>146</v>
-      </c>
-      <c r="N28" t="s">
-        <v>147</v>
-      </c>
-      <c r="O28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P28" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>149</v>
-      </c>
-      <c r="R28" t="s">
-        <v>150</v>
-      </c>
-      <c r="S28" t="s">
-        <v>151</v>
-      </c>
-      <c r="T28" t="s">
-        <v>152</v>
-      </c>
-      <c r="U28" t="s">
-        <v>137</v>
-      </c>
-      <c r="V28" t="s">
-        <v>153</v>
-      </c>
-      <c r="W28" t="s">
-        <v>154</v>
-      </c>
-      <c r="X28" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z28" t="s">
+      <c r="M21" t="s">
         <v>134</v>
       </c>
     </row>
